--- a/Geometry/solver results.xlsx
+++ b/Geometry/solver results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swegbloo\Documents\GitHub\AMD-FVC\Geometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ED8B29-7D0C-4C88-BEE7-AFDC43603ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6687710-C837-4A74-AB0A-01CD18FF0F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{549BC192-245A-4AFB-8A3E-D2B0D767F437}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{549BC192-245A-4AFB-8A3E-D2B0D767F437}"/>
   </bookViews>
   <sheets>
     <sheet name="RD Solver" sheetId="1" r:id="rId1"/>
-    <sheet name="NEMOH" sheetId="2" r:id="rId2"/>
+    <sheet name="NEMOH AM" sheetId="2" r:id="rId2"/>
+    <sheet name="NEMOH F33" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>0.0011003.2</t>
   </si>
@@ -72,6 +73,156 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>5106.97493536241 - 567.316952770761i</t>
+  </si>
+  <si>
+    <t>4851.15085847111 - 610.959726282340i</t>
+  </si>
+  <si>
+    <t>4589.11476798219 - 652.036071327936i</t>
+  </si>
+  <si>
+    <t>4323.14840131285 - 690.049751903526i</t>
+  </si>
+  <si>
+    <t>4055.22736772456 - 724.522868805191i</t>
+  </si>
+  <si>
+    <t>3785.83188588290 - 754.791075803965i</t>
+  </si>
+  <si>
+    <t>3517.31707664307 - 780.519356095081i</t>
+  </si>
+  <si>
+    <t>3250.03637340643 - 800.966272657725i</t>
+  </si>
+  <si>
+    <t>2983.41041345410 - 815.047859020352i</t>
+  </si>
+  <si>
+    <t>2724.79364814328 - 824.046380560011i</t>
+  </si>
+  <si>
+    <t>2472.60424576826 - 826.987184607330i</t>
+  </si>
+  <si>
+    <t>2226.35429536492 - 822.806295956811i</t>
+  </si>
+  <si>
+    <t>1985.01106765217 - 810.229195536285i</t>
+  </si>
+  <si>
+    <t>1766.41880930661 - 796.163436699279i</t>
+  </si>
+  <si>
+    <t>1556.83858720102 - 775.334315146001i</t>
+  </si>
+  <si>
+    <t>1352.14685943140 - 744.511889776660i</t>
+  </si>
+  <si>
+    <t>1170.38683534122 - 712.765454626529i</t>
+  </si>
+  <si>
+    <t>999.759026323944 - 674.585076180017i</t>
+  </si>
+  <si>
+    <t>844.074198803013 - 632.660989512592i</t>
+  </si>
+  <si>
+    <t>710.029150003547 - 593.344863932848i</t>
+  </si>
+  <si>
+    <t>586.871307631306 - 547.905072471610i</t>
+  </si>
+  <si>
+    <t>475.432277626857 - 497.946190572937i</t>
+  </si>
+  <si>
+    <t>387.729328360426 - 459.346754068441i</t>
+  </si>
+  <si>
+    <t>302.032117648028 - 408.824857129319i</t>
+  </si>
+  <si>
+    <t>234.049672818199 - 365.945868145692i</t>
+  </si>
+  <si>
+    <t>177.638487882993 - 324.619120835178i</t>
+  </si>
+  <si>
+    <t>132.711092690733 - 289.586607169810i</t>
+  </si>
+  <si>
+    <t>91.2792667976827 - 247.126316216803i</t>
+  </si>
+  <si>
+    <t>60.3864789880973 - 216.028192798487i</t>
+  </si>
+  <si>
+    <t>32.2247785935238 - 169.323955441067i</t>
+  </si>
+  <si>
+    <t>14.9830957897793 - 146.002313527438i</t>
+  </si>
+  <si>
+    <t>1.34036154680755 - 125.953368320080i</t>
+  </si>
+  <si>
+    <t>-8.50516238493537 - 84.4875216598137i</t>
+  </si>
+  <si>
+    <t>-23.3451526709270 - 89.1362954536883i</t>
+  </si>
+  <si>
+    <t>-40.7317069072670 - 47.2839971286153i</t>
+  </si>
+  <si>
+    <t>3.83018094950831 - 31.6685384941652i</t>
+  </si>
+  <si>
+    <t>-7.72499133189115 - 40.4832607491826i</t>
+  </si>
+  <si>
+    <t>-14.2821519459544 - 42.4868370894419i</t>
+  </si>
+  <si>
+    <t>-21.3215719798721 - 45.0244906856617i</t>
+  </si>
+  <si>
+    <t>-16.6363707803952 - 27.5586540983647i</t>
+  </si>
+  <si>
+    <t>-14.1154763818174 - 18.5449464410997i</t>
+  </si>
+  <si>
+    <t>-9.14973551981520 - 9.90660287169785i</t>
+  </si>
+  <si>
+    <t>-10.9657790996104 - 9.27453553026497i</t>
+  </si>
+  <si>
+    <t>-10.1177465716239 - 6.80958510992352i</t>
+  </si>
+  <si>
+    <t>-5.75718562679723 - 3.20247706212056i</t>
+  </si>
+  <si>
+    <t>-6.58040454751790 - 2.63264483762428i</t>
+  </si>
+  <si>
+    <t>-5.02469215642754 - 1.30943836557343i</t>
+  </si>
+  <si>
+    <t>-3.57013490030938 - 0.437207268042251i</t>
+  </si>
+  <si>
+    <t>-2.27422336076338 + 0.0209658712702821i</t>
+  </si>
+  <si>
+    <t>-1.22641878373813 + 0.145282989129077i</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1763,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NEMOH!$K$1:$K$50</c:f>
+              <c:f>'NEMOH AM'!$K$1:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1771,7 +1922,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NEMOH!$J$1:$J$50</c:f>
+              <c:f>'NEMOH AM'!$J$1:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2232,7 +2383,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>NEMOH!$U$1:$U$50</c:f>
+              <c:f>'NEMOH AM'!$U$1:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2391,7 +2542,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NEMOH!$V$1:$V$50</c:f>
+              <c:f>'NEMOH AM'!$V$1:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2687,6 +2838,598 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="448012192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NEMOH F33'!$J:$J</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.40003340844798352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4286039451859005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.458167431633629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48881447817728801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52064089769522004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55374745579317497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58823937365807999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62422552748943005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66181729197086003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70112698775243498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74226591748482995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78534201368883005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83045717442029499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87774044774932003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92720280708179503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97894577008991501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0330202530266051</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0894597854434851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1482802916221651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2094808999774149</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2730457064574849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.33894629448077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.40714472785277</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4775967010143201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5502545538259751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6250699228041801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7019958865801601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.780988549630345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8620080798723051</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9450192650682401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0299916795010349</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1168995598974951</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2057214837519301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2964399296917248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3890407828761648</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4835128317649549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5798472877634948</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6781112045298601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.77815303944613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8800413335701749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9837731427858998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.089346288184375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1967591738641699</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3060106427589502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4170998642855999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5300262480310152</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6447893783308851</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.761388965316625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.879824808733515</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0000967715142854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NEMOH F33'!$F$1:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.4458782053669406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3758360841407495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3042885400283764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2318788247527745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1591593018888207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0862515308172305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0138046723975234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94188260158206372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87025823869437613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80101835310342107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73364350356659958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66788269247373344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60329498568226736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54520310829782015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48939497150108524</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43434039030981064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38559732974228855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33937043580060938</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29682324561269091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26037076701417233</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2259206415480054</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19372586467530581</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1691448695697742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1430271050155322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12223220626063373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10412590836422227</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9635326714222488E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4130146316425963E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.311785127963955E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8500814107200287E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1298983574680904E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5443704571047834E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3893886333782699E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5927797069253102E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7561030913161288E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9760684825585888E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1597020982902143E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2612660864283542E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4018106787577056E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0580901119218828E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5579681987850752E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7946477154014269E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0412697506529097E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4317648252182669E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8537656423856801E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.994331338774186E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4611071758385556E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0120960877685692E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.3996511747750932E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4751181904657964E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9445-4FB3-8716-D7A785F661E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1402423312"/>
+        <c:axId val="1402425232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1402423312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402425232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1402425232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402423312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2903,6 +3646,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5522,6 +6305,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5704,6 +7003,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EED156-D6D0-3BA1-0530-86878453AC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6011,7 +7351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B474C8-A4D7-4000-A911-52BB348BA230}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="82" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -8767,8 +10107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289D7AC3-E7B4-4D18-BD75-7B7BA6822C66}">
   <dimension ref="A1:BU351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16445,4 +17785,977 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634FE7A1-987C-4832-8578-B83BD08C2FB1}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="e">
+        <f>IMCONJUGATE(A1)*A1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1">
+        <f>(SQRT(IMREAL(A1)^2+IMAGINARY(A1)^2))/(PI()*1025*9.81*0.5^3*0.9)</f>
+        <v>1.4458782053669406</v>
+      </c>
+      <c r="G1">
+        <v>0.80006681689596704</v>
+      </c>
+      <c r="H1">
+        <v>0.5</v>
+      </c>
+      <c r="J1">
+        <f>G1*H1</f>
+        <v>0.40003340844798352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F50" si="0">(SQRT(IMREAL(A2)^2+IMAGINARY(A2)^2))/(PI()*1025*9.81*0.5^3*0.9)</f>
+        <v>1.3758360841407495</v>
+      </c>
+      <c r="G2">
+        <v>0.85720789037180101</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J50" si="1">G2*H2</f>
+        <v>0.4286039451859005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.3042885400283764</v>
+      </c>
+      <c r="G3">
+        <v>0.91633486326725799</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.458167431633629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.2318788247527745</v>
+      </c>
+      <c r="G4">
+        <v>0.97762895635457603</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.48881447817728801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.1591593018888207</v>
+      </c>
+      <c r="G5">
+        <v>1.0412817953904401</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.52064089769522004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0862515308172305</v>
+      </c>
+      <c r="G6">
+        <v>1.1074949115863499</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.55374745579317497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.0138046723975234</v>
+      </c>
+      <c r="G7">
+        <v>1.17647874731616</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.58823937365807999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.94188260158206372</v>
+      </c>
+      <c r="G8">
+        <v>1.2484510549788601</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.62422552748943005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.87025823869437613</v>
+      </c>
+      <c r="G9">
+        <v>1.3236345839417201</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.66181729197086003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.80101835310342107</v>
+      </c>
+      <c r="G10">
+        <v>1.40225397550487</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.70112698775243498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.73364350356659958</v>
+      </c>
+      <c r="G11">
+        <v>1.4845318349696599</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.74226591748482995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.66788269247373344</v>
+      </c>
+      <c r="G12">
+        <v>1.5706840273776601</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.78534201368883005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.60329498568226736</v>
+      </c>
+      <c r="G13">
+        <v>1.66091434884059</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.83045717442029499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.54520310829782015</v>
+      </c>
+      <c r="G14">
+        <v>1.7554808954986401</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.87774044774932003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.48939497150108524</v>
+      </c>
+      <c r="G15">
+        <v>1.8544056141635901</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.92720280708179503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.43434039030981064</v>
+      </c>
+      <c r="G16">
+        <v>1.95789154017983</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.97894577008991501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.38559732974228855</v>
+      </c>
+      <c r="G17">
+        <v>2.0660405060532101</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.0330202530266051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.33937043580060938</v>
+      </c>
+      <c r="G18">
+        <v>2.1789195708869702</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.0894597854434851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.29682324561269091</v>
+      </c>
+      <c r="G19">
+        <v>2.2965605832443301</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.1482802916221651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.26037076701417233</v>
+      </c>
+      <c r="G20">
+        <v>2.4189617999548298</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.2094808999774149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.2259206415480054</v>
+      </c>
+      <c r="G21">
+        <v>2.5460914129149699</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.2730457064574849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.19372586467530581</v>
+      </c>
+      <c r="G22">
+        <v>2.6778925889615399</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.33894629448077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.1691448695697742</v>
+      </c>
+      <c r="G23">
+        <v>2.81428945570554</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.40714472785277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.1430271050155322</v>
+      </c>
+      <c r="G24">
+        <v>2.9551934020286401</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1.4775967010143201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.12223220626063373</v>
+      </c>
+      <c r="G25">
+        <v>3.1005091076519502</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1.5502545538259751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.10412590836422227</v>
+      </c>
+      <c r="G26">
+        <v>3.2501398456083601</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1.6250699228041801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>8.9635326714222488E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.4039917731603202</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1.7019958865801601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>7.4130146316425963E-2</v>
+      </c>
+      <c r="G28">
+        <v>3.5619770992606901</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1.780988549630345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>6.311785127963955E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.7240161597446102</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1.8620080798723051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4.8500814107200287E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.8900385301364802</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>1.9450192650682401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>4.1298983574680904E-2</v>
+      </c>
+      <c r="G31">
+        <v>4.0599833590020697</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2.0299916795010349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3.5443704571047834E-2</v>
+      </c>
+      <c r="G32">
+        <v>4.2337991197949902</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>2.1168995598974951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2.3893886333782699E-2</v>
+      </c>
+      <c r="G33">
+        <v>4.4114429675038602</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2.2057214837519301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2.5927797069253102E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.5928798593834497</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>2.2964399296917248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.7561030913161288E-2</v>
+      </c>
+      <c r="G35">
+        <v>4.7780815657523297</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>2.3890407828761648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>8.9760684825585888E-3</v>
+      </c>
+      <c r="G36">
+        <v>4.9670256635299097</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>2.4835128317649549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.1597020982902143E-2</v>
+      </c>
+      <c r="G37">
+        <v>5.1596945755269896</v>
+      </c>
+      <c r="H37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>2.5798472877634948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.2612660864283542E-2</v>
+      </c>
+      <c r="G38">
+        <v>5.3562224090597201</v>
+      </c>
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>2.6781112045298601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.4018106787577056E-2</v>
+      </c>
+      <c r="G39">
+        <v>5.55630607889226</v>
+      </c>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>2.77815303944613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>9.0580901119218828E-3</v>
+      </c>
+      <c r="G40">
+        <v>5.7600826671403498</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>2.8800413335701749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>6.5579681987850752E-3</v>
+      </c>
+      <c r="G41">
+        <v>5.9675462855717996</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>2.9837731427858998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3.7946477154014269E-3</v>
+      </c>
+      <c r="G42">
+        <v>6.1786925763687499</v>
+      </c>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>3.089346288184375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4.0412697506529097E-3</v>
+      </c>
+      <c r="G43">
+        <v>6.3935183477283397</v>
+      </c>
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>3.1967591738641699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3.4317648252182669E-3</v>
+      </c>
+      <c r="G44">
+        <v>6.6120212855179004</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>3.3060106427589502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.8537656423856801E-3</v>
+      </c>
+      <c r="G45">
+        <v>6.8341997285711997</v>
+      </c>
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>3.4170998642855999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.994331338774186E-3</v>
+      </c>
+      <c r="G46">
+        <v>7.0600524960620303</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>3.5300262480310152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.4611071758385556E-3</v>
+      </c>
+      <c r="G47">
+        <v>7.2895787566617702</v>
+      </c>
+      <c r="H47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>3.6447893783308851</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.0120960877685692E-3</v>
+      </c>
+      <c r="G48">
+        <v>7.5227779306332501</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>3.761388965316625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>6.3996511747750932E-4</v>
+      </c>
+      <c r="G49">
+        <v>7.75964961746703</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>3.879824808733515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>3.4751181904657964E-4</v>
+      </c>
+      <c r="G50">
+        <v>8.0001935430285709</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>4.0000967715142854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>